--- a/scrum_Backlog_Scorpion_TM.xlsx
+++ b/scrum_Backlog_Scorpion_TM.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C544D7-5DAF-4AA0-BBCF-1E03E794B41A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BCA425-D969-46BB-9B4E-6793CF6591F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t>Scrum Master</t>
   </si>
@@ -183,6 +183,42 @@
   </si>
   <si>
     <t>Test Soldier Movments - Kill Moves</t>
+  </si>
+  <si>
+    <t>link GUI Screens : Back Buttons , Navigation in General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GamePlay Screen - implement functions : Soldier Movements   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GamePlay Screen - implement functions : Queen Movements   </t>
+  </si>
+  <si>
+    <t>GamePlayScreen - implement Colored Tiles in Board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build GamePlay Screen &amp; implement Board </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build Main menu Screen </t>
+  </si>
+  <si>
+    <t>Build tutorial Screen</t>
+  </si>
+  <si>
+    <t>Build Game History</t>
+  </si>
+  <si>
+    <t>Build Load Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">impelment Turn Timer + Game Timer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">View- implement Classes : Soldier,Queen    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">View- implement Classes : Tile   </t>
   </si>
 </sst>
 </file>
@@ -333,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -662,11 +698,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB4C6E7"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFB4C6E7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB4C6E7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -716,14 +765,12 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -733,7 +780,6 @@
     <xf numFmtId="49" fontId="1" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
@@ -755,7 +801,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -778,7 +823,6 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -804,9 +848,6 @@
     <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -884,6 +925,30 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1206,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" zoomScale="63" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1219,7 +1284,7 @@
     <col min="3" max="3" width="17.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" style="5" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="54" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="48" customWidth="1"/>
     <col min="7" max="7" width="67.7109375" style="5" customWidth="1"/>
     <col min="8" max="8" width="115.85546875" style="5" customWidth="1"/>
     <col min="9" max="9" width="6.28515625" style="5" customWidth="1"/>
@@ -1240,10 +1305,10 @@
       <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="61"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1259,74 +1324,74 @@
       <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="61"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="15"/>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="63" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="31" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="55"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="15"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="57" t="s">
+      <c r="D4" s="63"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="36"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="55"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="57" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="57"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="16"/>
       <c r="D6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="48" t="s">
+      <c r="E6" s="66"/>
+      <c r="F6" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="32" t="s">
         <v>41</v>
       </c>
       <c r="J6" s="5" t="s">
@@ -1334,43 +1399,43 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="16"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="56" t="s">
+      <c r="E7" s="54"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="36"/>
+      <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
-      <c r="B8" s="59"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="16"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="56" t="s">
+      <c r="E8" s="54"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="36"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="16"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="67" t="s">
+      <c r="E9" s="54"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="35"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" spans="1:11" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
@@ -1378,84 +1443,84 @@
       <c r="D10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="48" t="s">
+      <c r="E10" s="62"/>
+      <c r="F10" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="62" t="s">
+      <c r="H10" s="56" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="55"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76" t="s">
+      <c r="D11" s="57"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="62"/>
+      <c r="H11" s="56"/>
     </row>
     <row r="12" spans="1:11" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="65" t="s">
+      <c r="D12" s="57"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="62"/>
+      <c r="H12" s="56"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="55"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="16"/>
-      <c r="D13" s="63"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="76" t="s">
+      <c r="F13" s="69"/>
+      <c r="G13" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="62"/>
+      <c r="H13" s="56"/>
     </row>
     <row r="14" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="77" t="s">
+      <c r="E14" s="54"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="37"/>
+      <c r="H14" s="33"/>
       <c r="J14" s="11"/>
       <c r="K14" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="16"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="48" t="s">
+      <c r="E15" s="62"/>
+      <c r="F15" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="34" t="s">
         <v>16</v>
       </c>
       <c r="J15" s="13"/>
@@ -1464,98 +1529,106 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="66"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="35" t="s">
+      <c r="E16" s="54"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="34"/>
       <c r="J16" s="13"/>
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="66"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="64" t="s">
+      <c r="E17" s="54"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="34"/>
       <c r="J17" s="13"/>
       <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="66"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="35" t="s">
+      <c r="E18" s="54"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="34"/>
       <c r="J18" s="13"/>
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="66"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="64" t="s">
+      <c r="E19" s="54"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="38"/>
+      <c r="H19" s="34"/>
       <c r="J19" s="13"/>
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="66"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="35" t="s">
+      <c r="E20" s="54"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="38"/>
+      <c r="H20" s="34"/>
       <c r="J20" s="13"/>
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="66"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="16"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="64" t="s">
+      <c r="E21" s="54"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="38"/>
+      <c r="H21" s="34"/>
       <c r="J21" s="13"/>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="39" t="s">
+    <row r="22" spans="1:11" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27"/>
+      <c r="B22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="62"/>
+      <c r="F22" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="35" t="s">
         <v>17</v>
       </c>
       <c r="J22" s="14"/>
@@ -1563,243 +1636,313 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="40" t="s">
+    <row r="23" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="36"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="28"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="36"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="28"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="28"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="36"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="28"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="36"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="28"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="39" t="s">
+    <row r="29" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="28"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="36"/>
+    </row>
+    <row r="30" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="28"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="36"/>
+    </row>
+    <row r="31" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="28"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="35"/>
+    </row>
+    <row r="32" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="28"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="73"/>
+    </row>
+    <row r="33" spans="1:8" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27"/>
+      <c r="B33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="17" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="32"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="39" t="s">
+    <row r="34" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="72"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="35"/>
+    </row>
+    <row r="35" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="27"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="33"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="34" t="s">
+    <row r="36" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="72"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="36"/>
+    </row>
+    <row r="37" spans="1:8" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="72"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="36"/>
+    </row>
+    <row r="38" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="72"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" s="36"/>
+    </row>
+    <row r="39" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="29"/>
+      <c r="B39" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="63"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="27"/>
+      <c r="H39" s="30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="44" t="s">
+    <row r="40" spans="1:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="37"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="39" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="44" t="s">
+    <row r="41" spans="1:8" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44" t="s">
+    <row r="42" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="45" t="s">
+    <row r="43" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="45" t="s">
+    <row r="44" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="53"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="53"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="53"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="53"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="53"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="53"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="53"/>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="53"/>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="53"/>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="53"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="53"/>
-      <c r="H44" s="10"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="53"/>
-      <c r="H45" s="10"/>
+    <row r="45" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
@@ -1807,7 +1950,7 @@
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
-      <c r="F46" s="53"/>
+      <c r="F46" s="47"/>
       <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1816,8 +1959,116 @@
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
-      <c r="F47" s="53"/>
+      <c r="F47" s="47"/>
       <c r="H47" s="10"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="47"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="47"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="47"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="47"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="47"/>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="47"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="47"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="47"/>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="47"/>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="47"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="47"/>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="47"/>
+      <c r="H59" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
